--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.459403333333333</v>
+        <v>0.975909</v>
       </c>
       <c r="N2">
-        <v>4.37821</v>
+        <v>2.927727</v>
       </c>
       <c r="O2">
-        <v>0.5447757294020447</v>
+        <v>0.5174659267816416</v>
       </c>
       <c r="P2">
-        <v>0.5447757294020447</v>
+        <v>0.5174659267816415</v>
       </c>
       <c r="Q2">
-        <v>155.9789700214989</v>
+        <v>206.3671484732</v>
       </c>
       <c r="R2">
-        <v>1403.81073019349</v>
+        <v>1857.3043362588</v>
       </c>
       <c r="S2">
-        <v>0.08219294571966872</v>
+        <v>0.125281723410032</v>
       </c>
       <c r="T2">
-        <v>0.08219294571966874</v>
+        <v>0.125281723410032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>2.138126</v>
       </c>
       <c r="O3">
-        <v>0.2660446052618481</v>
+        <v>0.377906598588572</v>
       </c>
       <c r="P3">
-        <v>0.2660446052618481</v>
+        <v>0.3779065985885719</v>
       </c>
       <c r="Q3">
-        <v>76.17329713654375</v>
+        <v>150.7104199593778</v>
       </c>
       <c r="R3">
-        <v>685.5596742288939</v>
+        <v>1356.3937796344</v>
       </c>
       <c r="S3">
-        <v>0.04013943466846322</v>
+        <v>0.0914935409441516</v>
       </c>
       <c r="T3">
-        <v>0.04013943466846324</v>
+        <v>0.09149354094415159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.050157</v>
+        <v>0.04874999999999999</v>
       </c>
       <c r="N4">
-        <v>0.150471</v>
+        <v>0.14625</v>
       </c>
       <c r="O4">
-        <v>0.01872293672045312</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="P4">
-        <v>0.01872293672045312</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="Q4">
-        <v>5.360709421910999</v>
+        <v>10.3087465</v>
       </c>
       <c r="R4">
-        <v>48.24638479719899</v>
+        <v>92.7787185</v>
       </c>
       <c r="S4">
-        <v>0.002824819900229608</v>
+        <v>0.006258251554437004</v>
       </c>
       <c r="T4">
-        <v>0.002824819900229609</v>
+        <v>0.006258251554437004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,61 +729,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4000433333333333</v>
+        <v>0.148571</v>
       </c>
       <c r="N5">
-        <v>1.20013</v>
+        <v>0.445713</v>
       </c>
       <c r="O5">
-        <v>0.149330821529181</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="P5">
-        <v>0.1493308215291811</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="Q5">
-        <v>42.75606727221888</v>
+        <v>31.41704156413333</v>
       </c>
       <c r="R5">
-        <v>384.8046054499699</v>
+        <v>282.7533740772</v>
       </c>
       <c r="S5">
-        <v>0.02253026235528812</v>
+        <v>0.01907271162449764</v>
       </c>
       <c r="T5">
-        <v>0.02253026235528813</v>
+        <v>0.01907271162449764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05659433333333333</v>
+        <v>0.975909</v>
       </c>
       <c r="N6">
-        <v>0.169783</v>
+        <v>2.927727</v>
       </c>
       <c r="O6">
-        <v>0.02112590708647308</v>
+        <v>0.5174659267816416</v>
       </c>
       <c r="P6">
-        <v>0.02112590708647309</v>
+        <v>0.5174659267816415</v>
       </c>
       <c r="Q6">
-        <v>6.048722529791888</v>
+        <v>75.372304652007</v>
       </c>
       <c r="R6">
-        <v>54.43850276812699</v>
+        <v>678.350741868063</v>
       </c>
       <c r="S6">
-        <v>0.003187367646394876</v>
+        <v>0.0457571483351465</v>
       </c>
       <c r="T6">
-        <v>0.003187367646394878</v>
+        <v>0.04575714833514648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.459403333333333</v>
+        <v>0.7127086666666665</v>
       </c>
       <c r="N7">
-        <v>4.37821</v>
+        <v>2.138126</v>
       </c>
       <c r="O7">
-        <v>0.5447757294020447</v>
+        <v>0.377906598588572</v>
       </c>
       <c r="P7">
-        <v>0.5447757294020447</v>
+        <v>0.3779065985885719</v>
       </c>
       <c r="Q7">
-        <v>112.7139852692767</v>
+        <v>55.04457357409932</v>
       </c>
       <c r="R7">
-        <v>1014.42586742349</v>
+        <v>495.4011621668939</v>
       </c>
       <c r="S7">
-        <v>0.05939450986122219</v>
+        <v>0.03341655439227545</v>
       </c>
       <c r="T7">
-        <v>0.0593945098612222</v>
+        <v>0.03341655439227544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7127086666666665</v>
+        <v>0.04874999999999999</v>
       </c>
       <c r="N8">
-        <v>2.138126</v>
+        <v>0.14625</v>
       </c>
       <c r="O8">
-        <v>0.2660446052618481</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="P8">
-        <v>0.2660446052618481</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="Q8">
-        <v>55.04457357409932</v>
+        <v>3.765104996249999</v>
       </c>
       <c r="R8">
-        <v>495.4011621668939</v>
+        <v>33.88594496625</v>
       </c>
       <c r="S8">
-        <v>0.02900567715836735</v>
+        <v>0.00228572641643677</v>
       </c>
       <c r="T8">
-        <v>0.02900567715836737</v>
+        <v>0.00228572641643677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.050157</v>
+        <v>0.148571</v>
       </c>
       <c r="N9">
-        <v>0.150471</v>
+        <v>0.445713</v>
       </c>
       <c r="O9">
-        <v>0.01872293672045312</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="P9">
-        <v>0.01872293672045312</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="Q9">
-        <v>3.873771718911</v>
+        <v>11.474572603033</v>
       </c>
       <c r="R9">
-        <v>34.863945470199</v>
+        <v>103.271153427297</v>
       </c>
       <c r="S9">
-        <v>0.002041279722381513</v>
+        <v>0.00696600327008056</v>
       </c>
       <c r="T9">
-        <v>0.002041279722381514</v>
+        <v>0.00696600327008056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>77.232923</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>231.698769</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,43 +1057,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4000433333333333</v>
+        <v>0.975909</v>
       </c>
       <c r="N10">
-        <v>1.20013</v>
+        <v>2.927727</v>
       </c>
       <c r="O10">
-        <v>0.149330821529181</v>
+        <v>0.5174659267816416</v>
       </c>
       <c r="P10">
-        <v>0.1493308215291811</v>
+        <v>0.5174659267816415</v>
       </c>
       <c r="Q10">
-        <v>30.89651595999667</v>
+        <v>170.111385155239</v>
       </c>
       <c r="R10">
-        <v>278.06864363997</v>
+        <v>1531.002466397151</v>
       </c>
       <c r="S10">
-        <v>0.01628088490952891</v>
+        <v>0.1032715122614768</v>
       </c>
       <c r="T10">
-        <v>0.01628088490952892</v>
+        <v>0.1032715122614768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>77.232923</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H11">
-        <v>231.698769</v>
+        <v>522.932113</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.05659433333333333</v>
+        <v>0.7127086666666665</v>
       </c>
       <c r="N11">
-        <v>0.169783</v>
+        <v>2.138126</v>
       </c>
       <c r="O11">
-        <v>0.02112590708647308</v>
+        <v>0.377906598588572</v>
       </c>
       <c r="P11">
-        <v>0.02112590708647309</v>
+        <v>0.3779065985885719</v>
       </c>
       <c r="Q11">
-        <v>4.370945788569666</v>
+        <v>124.2327496711375</v>
       </c>
       <c r="R11">
-        <v>39.33851209712699</v>
+        <v>1118.094747040238</v>
       </c>
       <c r="S11">
-        <v>0.00230326504844854</v>
+        <v>0.07541943132866635</v>
       </c>
       <c r="T11">
-        <v>0.002303265048448541</v>
+        <v>0.07541943132866634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.459403333333333</v>
+        <v>0.04874999999999999</v>
       </c>
       <c r="N12">
-        <v>4.37821</v>
+        <v>0.14625</v>
       </c>
       <c r="O12">
-        <v>0.5447757294020447</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="P12">
-        <v>0.5447757294020447</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="Q12">
-        <v>199.46590180559</v>
+        <v>8.497646836249999</v>
       </c>
       <c r="R12">
-        <v>1795.19311625031</v>
+        <v>76.47882152624999</v>
       </c>
       <c r="S12">
-        <v>0.1051083363210561</v>
+        <v>0.005158766055797205</v>
       </c>
       <c r="T12">
-        <v>0.1051083363210561</v>
+        <v>0.005158766055797205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.7127086666666665</v>
+        <v>0.148571</v>
       </c>
       <c r="N13">
-        <v>2.138126</v>
+        <v>0.445713</v>
       </c>
       <c r="O13">
-        <v>0.2660446052618481</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="P13">
-        <v>0.2660446052618481</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="Q13">
-        <v>97.41040990815399</v>
+        <v>25.89751565350767</v>
       </c>
       <c r="R13">
-        <v>876.6936891733859</v>
+        <v>233.077640881569</v>
       </c>
       <c r="S13">
-        <v>0.05133030775243635</v>
+        <v>0.01572190834206865</v>
       </c>
       <c r="T13">
-        <v>0.05133030775243637</v>
+        <v>0.01572190834206865</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.050157</v>
+        <v>0.975909</v>
       </c>
       <c r="N14">
-        <v>0.150471</v>
+        <v>2.927727</v>
       </c>
       <c r="O14">
-        <v>0.01872293672045312</v>
+        <v>0.5174659267816416</v>
       </c>
       <c r="P14">
-        <v>0.01872293672045312</v>
+        <v>0.5174659267816415</v>
       </c>
       <c r="Q14">
-        <v>6.855275034909001</v>
+        <v>27.847317711235</v>
       </c>
       <c r="R14">
-        <v>61.697475314181</v>
+        <v>250.625859401115</v>
       </c>
       <c r="S14">
-        <v>0.003612379596813682</v>
+        <v>0.01690559752858774</v>
       </c>
       <c r="T14">
-        <v>0.003612379596813683</v>
+        <v>0.01690559752858774</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.4000433333333333</v>
+        <v>0.7127086666666665</v>
       </c>
       <c r="N15">
-        <v>1.20013</v>
+        <v>2.138126</v>
       </c>
       <c r="O15">
-        <v>0.149330821529181</v>
+        <v>0.377906598588572</v>
       </c>
       <c r="P15">
-        <v>0.1493308215291811</v>
+        <v>0.3779065985885719</v>
       </c>
       <c r="Q15">
-        <v>54.67645744127</v>
+        <v>20.33696243831888</v>
       </c>
       <c r="R15">
-        <v>492.08811697143</v>
+        <v>183.03266194487</v>
       </c>
       <c r="S15">
-        <v>0.02881169876935757</v>
+        <v>0.01234619813302579</v>
       </c>
       <c r="T15">
-        <v>0.02881169876935758</v>
+        <v>0.01234619813302578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05659433333333333</v>
+        <v>0.04874999999999999</v>
       </c>
       <c r="N16">
-        <v>0.169783</v>
+        <v>0.14625</v>
       </c>
       <c r="O16">
-        <v>0.02112590708647308</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="P16">
-        <v>0.02112590708647309</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="Q16">
-        <v>7.735106174957001</v>
+        <v>1.39106898125</v>
       </c>
       <c r="R16">
-        <v>69.615955574613</v>
+        <v>12.51962083125</v>
       </c>
       <c r="S16">
-        <v>0.004076005642853555</v>
+        <v>0.0008444925495293641</v>
       </c>
       <c r="T16">
-        <v>0.004076005642853557</v>
+        <v>0.0008444925495293641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.459403333333333</v>
+        <v>0.148571</v>
       </c>
       <c r="N17">
-        <v>4.37821</v>
+        <v>0.445713</v>
       </c>
       <c r="O17">
-        <v>0.5447757294020447</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="P17">
-        <v>0.5447757294020447</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="Q17">
-        <v>66.47679136361445</v>
+        <v>4.239436094631666</v>
       </c>
       <c r="R17">
-        <v>598.2911222725301</v>
+        <v>38.154924851685</v>
       </c>
       <c r="S17">
-        <v>0.03502987167702288</v>
+        <v>0.002573684155407737</v>
       </c>
       <c r="T17">
-        <v>0.03502987167702289</v>
+        <v>0.002573684155407737</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H18">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I18">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J18">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7127086666666665</v>
+        <v>0.975909</v>
       </c>
       <c r="N18">
-        <v>2.138126</v>
+        <v>2.927727</v>
       </c>
       <c r="O18">
-        <v>0.2660446052618481</v>
+        <v>0.5174659267816416</v>
       </c>
       <c r="P18">
-        <v>0.2660446052618481</v>
+        <v>0.5174659267816415</v>
       </c>
       <c r="Q18">
-        <v>32.46435324279089</v>
+        <v>224.78015382009</v>
       </c>
       <c r="R18">
-        <v>292.179179185118</v>
+        <v>2023.02138438081</v>
       </c>
       <c r="S18">
-        <v>0.01710705503146405</v>
+        <v>0.136459922363128</v>
       </c>
       <c r="T18">
-        <v>0.01710705503146405</v>
+        <v>0.136459922363128</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H19">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I19">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J19">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.050157</v>
+        <v>0.7127086666666665</v>
       </c>
       <c r="N19">
-        <v>0.150471</v>
+        <v>2.138126</v>
       </c>
       <c r="O19">
-        <v>0.01872293672045312</v>
+        <v>0.377906598588572</v>
       </c>
       <c r="P19">
-        <v>0.01872293672045312</v>
+        <v>0.3779065985885719</v>
       </c>
       <c r="Q19">
-        <v>2.284684670967</v>
+        <v>164.1574816117533</v>
       </c>
       <c r="R19">
-        <v>20.562162038703</v>
+        <v>1477.41733450578</v>
       </c>
       <c r="S19">
-        <v>0.001203912060205725</v>
+        <v>0.09965700625863863</v>
       </c>
       <c r="T19">
-        <v>0.001203912060205726</v>
+        <v>0.09965700625863862</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.4000433333333333</v>
+        <v>0.04874999999999999</v>
       </c>
       <c r="N20">
-        <v>1.20013</v>
+        <v>0.14625</v>
       </c>
       <c r="O20">
-        <v>0.149330821529181</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="P20">
-        <v>0.1493308215291811</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="Q20">
-        <v>18.22223959545444</v>
+        <v>11.2285392375</v>
       </c>
       <c r="R20">
-        <v>164.00015635909</v>
+        <v>101.0568531375</v>
       </c>
       <c r="S20">
-        <v>0.009602188998642243</v>
+        <v>0.006816640911399001</v>
       </c>
       <c r="T20">
-        <v>0.009602188998642246</v>
+        <v>0.006816640911399001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.05659433333333333</v>
+        <v>0.148571</v>
       </c>
       <c r="N21">
-        <v>0.169783</v>
+        <v>0.445713</v>
       </c>
       <c r="O21">
-        <v>0.02112590708647308</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="P21">
-        <v>0.02112590708647309</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="Q21">
-        <v>2.577909480835444</v>
+        <v>34.22021134471</v>
       </c>
       <c r="R21">
-        <v>23.201185327519</v>
+        <v>307.98190210239</v>
       </c>
       <c r="S21">
-        <v>0.001358426549420876</v>
+        <v>0.02077446475584535</v>
       </c>
       <c r="T21">
-        <v>0.001358426549420876</v>
+        <v>0.02077446475584535</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>198.5982106666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H22">
-        <v>595.794632</v>
+        <v>454.666397</v>
       </c>
       <c r="I22">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J22">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.459403333333333</v>
+        <v>0.975909</v>
       </c>
       <c r="N22">
-        <v>4.37821</v>
+        <v>2.927727</v>
       </c>
       <c r="O22">
-        <v>0.5447757294020447</v>
+        <v>0.5174659267816416</v>
       </c>
       <c r="P22">
-        <v>0.5447757294020447</v>
+        <v>0.5174659267816415</v>
       </c>
       <c r="Q22">
-        <v>289.8348906409689</v>
+        <v>147.904342943291</v>
       </c>
       <c r="R22">
-        <v>2608.51401576872</v>
+        <v>1331.139086489619</v>
       </c>
       <c r="S22">
-        <v>0.1527281750279271</v>
+        <v>0.0897900228832705</v>
       </c>
       <c r="T22">
-        <v>0.1527281750279271</v>
+        <v>0.08979002288327048</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>198.5982106666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H23">
-        <v>595.794632</v>
+        <v>454.666397</v>
       </c>
       <c r="I23">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J23">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1869,27 +1869,27 @@
         <v>2.138126</v>
       </c>
       <c r="O23">
-        <v>0.2660446052618481</v>
+        <v>0.377906598588572</v>
       </c>
       <c r="P23">
-        <v>0.2660446052618481</v>
+        <v>0.3779065985885719</v>
       </c>
       <c r="Q23">
-        <v>141.5426659266257</v>
+        <v>108.0148938613358</v>
       </c>
       <c r="R23">
-        <v>1273.883993339632</v>
+        <v>972.1340447520219</v>
       </c>
       <c r="S23">
-        <v>0.07458575124531751</v>
+        <v>0.06557386753181413</v>
       </c>
       <c r="T23">
-        <v>0.07458575124531754</v>
+        <v>0.06557386753181411</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>198.5982106666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H24">
-        <v>595.794632</v>
+        <v>454.666397</v>
       </c>
       <c r="I24">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J24">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,43 +1925,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.050157</v>
+        <v>0.04874999999999999</v>
       </c>
       <c r="N24">
-        <v>0.150471</v>
+        <v>0.14625</v>
       </c>
       <c r="O24">
-        <v>0.01872293672045312</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="P24">
-        <v>0.01872293672045312</v>
+        <v>0.02584919693394059</v>
       </c>
       <c r="Q24">
-        <v>9.961090452408</v>
+        <v>7.388328951249999</v>
       </c>
       <c r="R24">
-        <v>89.649814071672</v>
+        <v>66.49496056125</v>
       </c>
       <c r="S24">
-        <v>0.005248985595626344</v>
+        <v>0.004485319446341242</v>
       </c>
       <c r="T24">
-        <v>0.005248985595626345</v>
+        <v>0.004485319446341242</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,418 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>198.5982106666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H25">
-        <v>595.794632</v>
+        <v>454.666397</v>
       </c>
       <c r="I25">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J25">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4000433333333333</v>
+        <v>0.148571</v>
       </c>
       <c r="N25">
-        <v>1.20013</v>
+        <v>0.445713</v>
       </c>
       <c r="O25">
-        <v>0.149330821529181</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="P25">
-        <v>0.1493308215291811</v>
+        <v>0.07877827769584589</v>
       </c>
       <c r="Q25">
-        <v>79.44789018912888</v>
+        <v>22.51674708956233</v>
       </c>
       <c r="R25">
-        <v>715.03101170216</v>
+        <v>202.650723806061</v>
       </c>
       <c r="S25">
-        <v>0.04186497785539435</v>
+        <v>0.01366950554794595</v>
       </c>
       <c r="T25">
-        <v>0.04186497785539436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>198.5982106666667</v>
-      </c>
-      <c r="H26">
-        <v>595.794632</v>
-      </c>
-      <c r="I26">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="J26">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.05659433333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.169783</v>
-      </c>
-      <c r="O26">
-        <v>0.02112590708647308</v>
-      </c>
-      <c r="P26">
-        <v>0.02112590708647309</v>
-      </c>
-      <c r="Q26">
-        <v>11.23953333387289</v>
-      </c>
-      <c r="R26">
-        <v>101.155800004856</v>
-      </c>
-      <c r="S26">
-        <v>0.005922659657889078</v>
-      </c>
-      <c r="T26">
-        <v>0.005922659657889079</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H27">
-        <v>430.367156</v>
-      </c>
-      <c r="I27">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J27">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.459403333333333</v>
-      </c>
-      <c r="N27">
-        <v>4.37821</v>
-      </c>
-      <c r="O27">
-        <v>0.5447757294020447</v>
-      </c>
-      <c r="P27">
-        <v>0.5447757294020447</v>
-      </c>
-      <c r="Q27">
-        <v>209.3597540078622</v>
-      </c>
-      <c r="R27">
-        <v>1884.23778607076</v>
-      </c>
-      <c r="S27">
-        <v>0.1103218907951477</v>
-      </c>
-      <c r="T27">
-        <v>0.1103218907951477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H28">
-        <v>430.367156</v>
-      </c>
-      <c r="I28">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J28">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.7127086666666665</v>
-      </c>
-      <c r="N28">
-        <v>2.138126</v>
-      </c>
-      <c r="O28">
-        <v>0.2660446052618481</v>
-      </c>
-      <c r="P28">
-        <v>0.2660446052618481</v>
-      </c>
-      <c r="Q28">
-        <v>102.2421339766284</v>
-      </c>
-      <c r="R28">
-        <v>920.1792057896558</v>
-      </c>
-      <c r="S28">
-        <v>0.0538763794057996</v>
-      </c>
-      <c r="T28">
-        <v>0.05387637940579963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H29">
-        <v>430.367156</v>
-      </c>
-      <c r="I29">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J29">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.050157</v>
-      </c>
-      <c r="N29">
-        <v>0.150471</v>
-      </c>
-      <c r="O29">
-        <v>0.01872293672045312</v>
-      </c>
-      <c r="P29">
-        <v>0.01872293672045312</v>
-      </c>
-      <c r="Q29">
-        <v>7.195308481163999</v>
-      </c>
-      <c r="R29">
-        <v>64.75777633047599</v>
-      </c>
-      <c r="S29">
-        <v>0.003791559845196248</v>
-      </c>
-      <c r="T29">
-        <v>0.00379155984519625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H30">
-        <v>430.367156</v>
-      </c>
-      <c r="I30">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J30">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.4000433333333333</v>
-      </c>
-      <c r="N30">
-        <v>1.20013</v>
-      </c>
-      <c r="O30">
-        <v>0.149330821529181</v>
-      </c>
-      <c r="P30">
-        <v>0.1493308215291811</v>
-      </c>
-      <c r="Q30">
-        <v>57.38850388114221</v>
-      </c>
-      <c r="R30">
-        <v>516.4965349302799</v>
-      </c>
-      <c r="S30">
-        <v>0.03024080864096984</v>
-      </c>
-      <c r="T30">
-        <v>0.03024080864096985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H31">
-        <v>430.367156</v>
-      </c>
-      <c r="I31">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J31">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.05659433333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.169783</v>
-      </c>
-      <c r="O31">
-        <v>0.02112590708647308</v>
-      </c>
-      <c r="P31">
-        <v>0.02112590708647309</v>
-      </c>
-      <c r="Q31">
-        <v>8.118780760794222</v>
-      </c>
-      <c r="R31">
-        <v>73.069026847148</v>
-      </c>
-      <c r="S31">
-        <v>0.004278182541466159</v>
-      </c>
-      <c r="T31">
-        <v>0.004278182541466161</v>
+        <v>0.01366950554794595</v>
       </c>
     </row>
   </sheetData>
